--- a/ЛК/ЛК-5-Введение в библиотеку Pandas/titanic.xlsx
+++ b/ЛК/ЛК-5-Введение в библиотеку Pandas/titanic.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
